--- a/tmp/2017-12-15拼团数据.xlsx
+++ b/tmp/2017-12-15拼团数据.xlsx
@@ -55,66 +55,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参与人数：1196</t>
+    <t>wng万年贡寒野香大米 东北黑龙江五常稻花香米1斤装 新米</t>
+  </si>
+  <si>
+    <t>wng万年贡米1斤装 新米江西特产大米500g</t>
+  </si>
+  <si>
+    <t>波斯贡新疆红枣夹核桃仁250G*2袋</t>
+  </si>
+  <si>
+    <t>新西兰进口纽麦福（Meadowfresh）进口纯牛奶全脂250ml*24盒</t>
+  </si>
+  <si>
+    <t>广西特色正宗柳州螺状元螺蛳粉280G*3袋</t>
+  </si>
+  <si>
+    <t>Byphasse/蓓昂斯温和清洁卸妆水500ml</t>
+  </si>
+  <si>
+    <t>杰妈妈福建古田金钱菇125g*2盒</t>
+  </si>
+  <si>
+    <t>东阿县润娇颜阿胶金丝枣240g*4袋</t>
+  </si>
+  <si>
+    <t>韩国全南蜂蜜柚子茶580g+全南蜂蜜芦荟茶550g</t>
+  </si>
+  <si>
+    <t>Hola/赫拉绵羊油温和润唇膏4.3g 香草</t>
+  </si>
+  <si>
+    <t>Hola/赫拉绵羊油温和润唇膏4.3g 无香</t>
+  </si>
+  <si>
+    <t>FASCY/发希倍润手霜2支装80ml*2支（薰衣草+草莓）</t>
+  </si>
+  <si>
+    <t>台湾森田维生素C细白面膜28g*4片</t>
+  </si>
+  <si>
+    <t>chen川 净爽爽细肤甜心泥膜90g 清爽补水收缩毛孔</t>
+  </si>
+  <si>
+    <t>四洲粟一烧香辣味80g*5</t>
+  </si>
+  <si>
+    <t>美迪惠尔保湿乳液针剂蛋白面膜DNA蓝25ml*10片</t>
+  </si>
+  <si>
+    <t>波斯贡枣子新疆红枣阿克苏灰枣500G*2袋</t>
+  </si>
+  <si>
+    <t>龙凤富硒香米2.5KG（赠中粮金盈十二谷米伴侣450克*2包，每包内含30g*15袋）</t>
+  </si>
+  <si>
+    <t>参与人数：669</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付：1070</t>
+    <t>支付：532</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wng万年贡寒野香大米 东北黑龙江五常稻花香米1斤装 新米</t>
-  </si>
-  <si>
-    <t>wng万年贡米1斤装 新米江西特产大米500g</t>
-  </si>
-  <si>
-    <t>波斯贡新疆红枣夹核桃仁250G*2袋</t>
-  </si>
-  <si>
-    <t>新西兰进口纽麦福（Meadowfresh）进口纯牛奶全脂250ml*24盒</t>
-  </si>
-  <si>
-    <t>广西特色正宗柳州螺状元螺蛳粉280G*3袋</t>
-  </si>
-  <si>
-    <t>Byphasse/蓓昂斯温和清洁卸妆水500ml</t>
-  </si>
-  <si>
-    <t>杰妈妈福建古田金钱菇125g*2盒</t>
-  </si>
-  <si>
-    <t>东阿县润娇颜阿胶金丝枣240g*4袋</t>
-  </si>
-  <si>
-    <t>韩国全南蜂蜜柚子茶580g+全南蜂蜜芦荟茶550g</t>
-  </si>
-  <si>
-    <t>Hola/赫拉绵羊油温和润唇膏4.3g 香草</t>
-  </si>
-  <si>
-    <t>Hola/赫拉绵羊油温和润唇膏4.3g 无香</t>
-  </si>
-  <si>
-    <t>FASCY/发希倍润手霜2支装80ml*2支（薰衣草+草莓）</t>
-  </si>
-  <si>
-    <t>台湾森田维生素C细白面膜28g*4片</t>
-  </si>
-  <si>
-    <t>chen川 净爽爽细肤甜心泥膜90g 清爽补水收缩毛孔</t>
-  </si>
-  <si>
-    <t>四洲粟一烧香辣味80g*5</t>
-  </si>
-  <si>
-    <t>美迪惠尔保湿乳液针剂蛋白面膜DNA蓝25ml*10片</t>
-  </si>
-  <si>
-    <t>波斯贡枣子新疆红枣阿克苏灰枣500G*2袋</t>
-  </si>
-  <si>
-    <t>龙凤富硒香米2.5KG（赠中粮金盈十二谷米伴侣450克*2包，每包内含30g*15袋）</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
         <v>217079</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>243</v>
@@ -486,7 +486,7 @@
         <v>217079</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -500,7 +500,7 @@
         <v>217078</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>233</v>
@@ -509,7 +509,7 @@
         <v>217078</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>96</v>
@@ -523,7 +523,7 @@
         <v>202833</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>141</v>
@@ -538,7 +538,7 @@
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -555,13 +555,13 @@
         <v>202833</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>231981</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -598,7 +598,7 @@
         <v>216169</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -609,7 +609,7 @@
         <v>216169</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -618,7 +618,7 @@
         <v>230686</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>231981</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -649,7 +649,7 @@
         <v>230686</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -658,7 +658,7 @@
         <v>202834</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>204554</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -678,7 +678,7 @@
         <v>207641</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>207641</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -700,7 +700,7 @@
         <v>228392</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -711,7 +711,7 @@
         <v>230464</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -722,7 +722,7 @@
         <v>230464</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -733,7 +733,7 @@
         <v>230284</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -744,7 +744,7 @@
         <v>222068</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>222622</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>227882</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>229423</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>202834</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>231848</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>1</v>
